--- a/Altium Designer Project/Project Outputs for Graduate Work/BOM/Bill of Materials-Graduate Work.xlsx
+++ b/Altium Designer Project/Project Outputs for Graduate Work/BOM/Bill of Materials-Graduate Work.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="80" documentId="8_{DD042059-F6E3-4EE3-8DFE-E42FACED6A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43D9D99C-D137-49A2-A59F-774B80DDDDD2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4740" windowWidth="28800" windowHeight="9090" xr2:uid="{F590520F-2690-480A-8CF1-13454BF1F765}"/>
+    <workbookView xWindow="17445" yWindow="2385" windowWidth="28800" windowHeight="9090" xr2:uid="{F590520F-2690-480A-8CF1-13454BF1F765}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Graduate Work" sheetId="1" r:id="rId1"/>
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
